--- a/decision_matrix_second_iteration (2).xlsx
+++ b/decision_matrix_second_iteration (2).xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="data" sheetId="4" r:id="rId4"/>
+    <sheet name="data2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -1265,7 +1266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="52">
   <si>
     <t>Component</t>
   </si>
@@ -1400,14 +1401,37 @@
   </si>
   <si>
     <t>C_D+Z (Basecase) [$/h]</t>
+  </si>
+  <si>
+    <t>1st Iterarion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparision Parameters </t>
+  </si>
+  <si>
+    <t>Levelized Prooduct Cost $/MWh]</t>
+  </si>
+  <si>
+    <t>Specific Investment cost $/MW_ex</t>
+  </si>
+  <si>
+    <t>Electric Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Efficiency </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1902,7 +1926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -2166,6 +2190,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4544,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4765,4 +4801,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="29.19921875" style="89" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="89" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="113">
+        <v>928005.21499999997</v>
+      </c>
+      <c r="C2" s="113">
+        <v>865704.75800000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="112">
+        <v>93.375</v>
+      </c>
+      <c r="C3" s="114">
+        <v>91.402939000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="111">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="C4" s="111">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="111">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="C5" s="111">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>